--- a/public/contact_group_2.xlsx
+++ b/public/contact_group_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>tel</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>+380675555678</t>
+  </si>
+  <si>
+    <t>+380674444656</t>
+  </si>
+  <si>
+    <t>+380995111622</t>
+  </si>
+  <si>
+    <t>+333333333333</t>
+  </si>
+  <si>
+    <t>+444444444444</t>
+  </si>
+  <si>
+    <t>+555555555555</t>
   </si>
 </sst>
 </file>
@@ -462,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -496,8 +514,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1111111111</v>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -519,8 +537,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2222222222</v>
+      <c r="A3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -542,8 +560,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
-        <v>5555555555</v>
+      <c r="A4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -565,8 +583,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3333333333</v>
+      <c r="A5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -588,8 +606,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>4444444444</v>
+      <c r="A6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -611,8 +629,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6666666666</v>
+      <c r="A7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>

--- a/public/contact_group_2.xlsx
+++ b/public/contact_group_2.xlsx
@@ -106,15 +106,9 @@
     <t>2022-11-28</t>
   </si>
   <si>
-    <t>+380675555678</t>
-  </si>
-  <si>
     <t>+380674444656</t>
   </si>
   <si>
-    <t>+380995111622</t>
-  </si>
-  <si>
     <t>+333333333333</t>
   </si>
   <si>
@@ -122,6 +116,12 @@
   </si>
   <si>
     <t>+555555555555</t>
+  </si>
+  <si>
+    <t>+380675555888</t>
+  </si>
+  <si>
+    <t>+380995111333</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>

--- a/public/contact_group_2.xlsx
+++ b/public/contact_group_2.xlsx
@@ -106,22 +106,22 @@
     <t>2022-11-28</t>
   </si>
   <si>
-    <t>+380674444656</t>
-  </si>
-  <si>
-    <t>+333333333333</t>
-  </si>
-  <si>
-    <t>+444444444444</t>
-  </si>
-  <si>
-    <t>+555555555555</t>
-  </si>
-  <si>
-    <t>+380675555888</t>
-  </si>
-  <si>
-    <t>+380995111333</t>
+    <t>380675555888</t>
+  </si>
+  <si>
+    <t>380674444656</t>
+  </si>
+  <si>
+    <t>380995111333</t>
+  </si>
+  <si>
+    <t>333333333333</t>
+  </si>
+  <si>
+    <t>444444444444</t>
+  </si>
+  <si>
+    <t>555555555555</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>

--- a/public/contact_group_2.xlsx
+++ b/public/contact_group_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
   <si>
     <t>tel</t>
   </si>
@@ -122,6 +122,108 @@
   </si>
   <si>
     <t>555555555555</t>
+  </si>
+  <si>
+    <t>380676556668</t>
+  </si>
+  <si>
+    <t>Петро</t>
+  </si>
+  <si>
+    <t>2000-02-03</t>
+  </si>
+  <si>
+    <t>380674433336</t>
+  </si>
+  <si>
+    <t>Ірина</t>
+  </si>
+  <si>
+    <t>Ліхо</t>
+  </si>
+  <si>
+    <t>Іванівна</t>
+  </si>
+  <si>
+    <t>380995111111</t>
+  </si>
+  <si>
+    <t>222223333333</t>
+  </si>
+  <si>
+    <t>Андрій</t>
+  </si>
+  <si>
+    <t>Андрійович</t>
+  </si>
+  <si>
+    <t>Сахно</t>
+  </si>
+  <si>
+    <t>1988-12-12</t>
+  </si>
+  <si>
+    <t>2005-03-05</t>
+  </si>
+  <si>
+    <t>444447777777</t>
+  </si>
+  <si>
+    <t>555555987654</t>
+  </si>
+  <si>
+    <t>Дмитро</t>
+  </si>
+  <si>
+    <t>Хейло</t>
+  </si>
+  <si>
+    <t>Олегівна</t>
+  </si>
+  <si>
+    <t>Бут</t>
+  </si>
+  <si>
+    <t>1997-11-30</t>
+  </si>
+  <si>
+    <t>1979-02-05</t>
+  </si>
+  <si>
+    <t>123438459832</t>
+  </si>
+  <si>
+    <t>380678297656</t>
+  </si>
+  <si>
+    <t>380989111333</t>
+  </si>
+  <si>
+    <t>333333320098</t>
+  </si>
+  <si>
+    <t>488829844444</t>
+  </si>
+  <si>
+    <t>555998055555</t>
+  </si>
+  <si>
+    <t>380676753668</t>
+  </si>
+  <si>
+    <t>380674111116</t>
+  </si>
+  <si>
+    <t>380887711111</t>
+  </si>
+  <si>
+    <t>222229933333</t>
+  </si>
+  <si>
+    <t>447777777777</t>
+  </si>
+  <si>
+    <t>555553437654</t>
   </si>
 </sst>
 </file>
@@ -476,11 +578,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Data"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -651,6 +753,420 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/contact_group_2.xlsx
+++ b/public/contact_group_2.xlsx
@@ -115,15 +115,6 @@
     <t>380995111333</t>
   </si>
   <si>
-    <t>333333333333</t>
-  </si>
-  <si>
-    <t>444444444444</t>
-  </si>
-  <si>
-    <t>555555555555</t>
-  </si>
-  <si>
     <t>380676556668</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>380995111111</t>
   </si>
   <si>
-    <t>222223333333</t>
-  </si>
-  <si>
     <t>Андрій</t>
   </si>
   <si>
@@ -166,12 +154,6 @@
     <t>2005-03-05</t>
   </si>
   <si>
-    <t>444447777777</t>
-  </si>
-  <si>
-    <t>555555987654</t>
-  </si>
-  <si>
     <t>Дмитро</t>
   </si>
   <si>
@@ -190,24 +172,12 @@
     <t>1979-02-05</t>
   </si>
   <si>
-    <t>123438459832</t>
-  </si>
-  <si>
     <t>380678297656</t>
   </si>
   <si>
     <t>380989111333</t>
   </si>
   <si>
-    <t>333333320098</t>
-  </si>
-  <si>
-    <t>488829844444</t>
-  </si>
-  <si>
-    <t>555998055555</t>
-  </si>
-  <si>
     <t>380676753668</t>
   </si>
   <si>
@@ -217,13 +187,43 @@
     <t>380887711111</t>
   </si>
   <si>
-    <t>222229933333</t>
-  </si>
-  <si>
-    <t>447777777777</t>
-  </si>
-  <si>
-    <t>555553437654</t>
+    <t>380444444444</t>
+  </si>
+  <si>
+    <t>380555555555</t>
+  </si>
+  <si>
+    <t>380223333333</t>
+  </si>
+  <si>
+    <t>380447777777</t>
+  </si>
+  <si>
+    <t>380555987654</t>
+  </si>
+  <si>
+    <t>380438459832</t>
+  </si>
+  <si>
+    <t>380829844444</t>
+  </si>
+  <si>
+    <t>380333320098</t>
+  </si>
+  <si>
+    <t>380998055555</t>
+  </si>
+  <si>
+    <t>380229933333</t>
+  </si>
+  <si>
+    <t>380777777777</t>
+  </si>
+  <si>
+    <t>380553437654</t>
+  </si>
+  <si>
+    <t>380333333333</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -767,7 +767,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
@@ -778,16 +778,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>29</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -813,7 +813,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
@@ -824,19 +824,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>17</v>
@@ -847,19 +847,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>18</v>
@@ -870,19 +870,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>19</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1043,7 +1043,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>17</v>
@@ -1054,16 +1054,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>29</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>19</v>
@@ -1100,19 +1100,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
@@ -1123,19 +1123,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>18</v>
@@ -1146,19 +1146,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>

--- a/public/contact_group_2.xlsx
+++ b/public/contact_group_2.xlsx
@@ -115,6 +115,15 @@
     <t>380995111333</t>
   </si>
   <si>
+    <t>333333333333</t>
+  </si>
+  <si>
+    <t>444444444444</t>
+  </si>
+  <si>
+    <t>555555555555</t>
+  </si>
+  <si>
     <t>380676556668</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>380995111111</t>
   </si>
   <si>
+    <t>222223333333</t>
+  </si>
+  <si>
     <t>Андрій</t>
   </si>
   <si>
@@ -154,6 +166,12 @@
     <t>2005-03-05</t>
   </si>
   <si>
+    <t>444447777777</t>
+  </si>
+  <si>
+    <t>555555987654</t>
+  </si>
+  <si>
     <t>Дмитро</t>
   </si>
   <si>
@@ -172,12 +190,24 @@
     <t>1979-02-05</t>
   </si>
   <si>
+    <t>123438459832</t>
+  </si>
+  <si>
     <t>380678297656</t>
   </si>
   <si>
     <t>380989111333</t>
   </si>
   <si>
+    <t>333333320098</t>
+  </si>
+  <si>
+    <t>488829844444</t>
+  </si>
+  <si>
+    <t>555998055555</t>
+  </si>
+  <si>
     <t>380676753668</t>
   </si>
   <si>
@@ -187,43 +217,13 @@
     <t>380887711111</t>
   </si>
   <si>
-    <t>380444444444</t>
-  </si>
-  <si>
-    <t>380555555555</t>
-  </si>
-  <si>
-    <t>380223333333</t>
-  </si>
-  <si>
-    <t>380447777777</t>
-  </si>
-  <si>
-    <t>380555987654</t>
-  </si>
-  <si>
-    <t>380438459832</t>
-  </si>
-  <si>
-    <t>380829844444</t>
-  </si>
-  <si>
-    <t>380333320098</t>
-  </si>
-  <si>
-    <t>380998055555</t>
-  </si>
-  <si>
-    <t>380229933333</t>
-  </si>
-  <si>
-    <t>380777777777</t>
-  </si>
-  <si>
-    <t>380553437654</t>
-  </si>
-  <si>
-    <t>380333333333</t>
+    <t>222229933333</t>
+  </si>
+  <si>
+    <t>447777777777</t>
+  </si>
+  <si>
+    <t>555553437654</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -767,7 +767,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
@@ -778,16 +778,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>29</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -813,7 +813,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
@@ -824,19 +824,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>17</v>
@@ -847,19 +847,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>18</v>
@@ -870,19 +870,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>19</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1043,7 +1043,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>17</v>
@@ -1054,16 +1054,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>29</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>19</v>
@@ -1100,19 +1100,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
@@ -1123,19 +1123,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>18</v>
@@ -1146,19 +1146,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>
